--- a/medicine/Enfance/John_Dickson_Batten/John_Dickson_Batten.xlsx
+++ b/medicine/Enfance/John_Dickson_Batten/John_Dickson_Batten.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Dickson Batten, né à Plymouth le 8 octobre 1860 et mort le 5 août 1932, est un peintre et illustrateur britannique. Il a été, avec son épouse Mary Batten, un membre actif de la Society of Painters in Tempera.
 </t>
@@ -511,23 +523,25 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>John Dickson Batten fréquente la Slade School, et notamment les cours d'Alphonse Legros[1]. Ses tableaux les plus célèbres traitent surtout de sujets mythologiques dans la lignée du mouvement du préraphaélisme, dont : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>John Dickson Batten fréquente la Slade School, et notamment les cours d'Alphonse Legros. Ses tableaux les plus célèbres traitent surtout de sujets mythologiques dans la lignée du mouvement du préraphaélisme, dont : 
 The Garden of Adonis: Amoretta and Time,
 The Family,
 Mother and Child,
 Sleeping Beauty: The Princess Pricks Her Finger,
 Snow White and the Seven Dwarves, et
 Atalanta and Melanion.
-Marqué par les Arts &amp; Crafts, et également par l'Exhibition of Engravings by Birmingham Men qui s'était tenue à la Royal Birmingham Society of Artists en 1877[1], il a illustré les contes de fées de Joseph Jacobs d'inspiration folklorique : 
+Marqué par les Arts &amp; Crafts, et également par l'Exhibition of Engravings by Birmingham Men qui s'était tenue à la Royal Birmingham Society of Artists en 1877, il a illustré les contes de fées de Joseph Jacobs d'inspiration folklorique : 
 English Fairy Tales (1890),
 Celtic Fairy Tales (1892),
 More Celtic Fairy Tales (1894),
 More English Fairy Tales (1894).
 Puis des contes traditionnels issus du répertoire merveilleux
 Indian Fairy Tales (1912),
-European Folk and Fairy Tales (connus sous le nom de Europa's Fairy Book)[2] (1916).
+European Folk and Fairy Tales (connus sous le nom de Europa's Fairy Book) (1916).
 Il a également illustré : 
 Oedipus the Wreck, avec Lancelot Speed (1888)
 Les Mille et Une Nuits ;
